--- a/Documentação/Tabela de Backlog.xlsx
+++ b/Documentação/Tabela de Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\OneDrive\Área de Trabalho\Sptech\04 - Pesquisa e Inovação\projeto-individual-v2\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35C4017-C036-4563-B464-2585DA8DF254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD453B-D0F3-4B85-A610-5F8A97D64D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F2FD18C-312E-4306-A294-BA0973BBA72F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{6F2FD18C-312E-4306-A294-BA0973BBA72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -192,18 +192,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,6 +212,26 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -288,60 +300,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D74E49-908D-4315-A989-D029E984210C}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,51 +682,51 @@
     <col min="2" max="2" width="21.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -728,67 +734,67 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -796,33 +802,33 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -830,33 +836,33 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -864,84 +870,84 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -949,84 +955,84 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1034,35 +1040,35 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
